--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>1244.962676563144</v>
+        <v>1122.206616130903</v>
       </c>
       <c r="R2">
-        <v>11204.66408906829</v>
+        <v>10099.85954517812</v>
       </c>
       <c r="S2">
-        <v>0.03588518509013446</v>
+        <v>0.02873426054271209</v>
       </c>
       <c r="T2">
-        <v>0.03588518509013447</v>
+        <v>0.02873426054271209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>4100.951112690793</v>
+        <v>6024.639265106325</v>
       </c>
       <c r="R3">
-        <v>36908.56001421713</v>
+        <v>54221.75338595692</v>
       </c>
       <c r="S3">
-        <v>0.118207069573172</v>
+        <v>0.1542617480872394</v>
       </c>
       <c r="T3">
-        <v>0.118207069573172</v>
+        <v>0.1542617480872394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H4">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I4">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J4">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>2061.494226641645</v>
+        <v>3196.238691049028</v>
       </c>
       <c r="R4">
-        <v>18553.4480397748</v>
+        <v>28766.14821944125</v>
       </c>
       <c r="S4">
-        <v>0.05942114031040748</v>
+        <v>0.08184014778129478</v>
       </c>
       <c r="T4">
-        <v>0.0594211403104075</v>
+        <v>0.08184014778129478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H5">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I5">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J5">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>4894.074246771855</v>
+        <v>6521.206127620765</v>
       </c>
       <c r="R5">
-        <v>44046.66822094669</v>
+        <v>58690.85514858688</v>
       </c>
       <c r="S5">
-        <v>0.1410682934488445</v>
+        <v>0.1669764134610377</v>
       </c>
       <c r="T5">
-        <v>0.1410682934488445</v>
+        <v>0.1669764134610377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J6">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>1889.417731559848</v>
+        <v>1159.305841152788</v>
       </c>
       <c r="R6">
-        <v>17004.75958403863</v>
+        <v>10433.75257037509</v>
       </c>
       <c r="S6">
-        <v>0.05446115476873756</v>
+        <v>0.02968419149338403</v>
       </c>
       <c r="T6">
-        <v>0.05446115476873759</v>
+        <v>0.02968419149338402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J7">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>6223.808869490296</v>
@@ -883,10 +883,10 @@
         <v>56014.27982541266</v>
       </c>
       <c r="S7">
-        <v>0.1793969710512458</v>
+        <v>0.1593615142286024</v>
       </c>
       <c r="T7">
-        <v>0.1793969710512459</v>
+        <v>0.1593615142286023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J8">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>3128.626920830768</v>
+        <v>3301.903705600192</v>
       </c>
       <c r="R8">
-        <v>28157.64228747691</v>
+        <v>29717.13335040173</v>
       </c>
       <c r="S8">
-        <v>0.0901804995808605</v>
+        <v>0.08454571555706741</v>
       </c>
       <c r="T8">
-        <v>0.09018049958086054</v>
+        <v>0.08454571555706741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J9">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>7427.49227386348</v>
+        <v>6736.791822861828</v>
       </c>
       <c r="R9">
-        <v>66847.43046477133</v>
+        <v>60631.12640575645</v>
       </c>
       <c r="S9">
-        <v>0.2140923097702328</v>
+        <v>0.1724965159513405</v>
       </c>
       <c r="T9">
-        <v>0.2140923097702328</v>
+        <v>0.1724965159513405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H10">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I10">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J10">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>371.1268892215804</v>
+        <v>315.7631008084081</v>
       </c>
       <c r="R10">
-        <v>3340.142002994224</v>
+        <v>2841.867907275673</v>
       </c>
       <c r="S10">
-        <v>0.01069747500255022</v>
+        <v>0.008085159254973679</v>
       </c>
       <c r="T10">
-        <v>0.01069747500255022</v>
+        <v>0.008085159254973677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H11">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I11">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J11">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>1222.50510634125</v>
+        <v>1695.194760266996</v>
       </c>
       <c r="R11">
-        <v>11002.54595707125</v>
+        <v>15256.75284240296</v>
       </c>
       <c r="S11">
-        <v>0.03523786121508295</v>
+        <v>0.0434057037375997</v>
       </c>
       <c r="T11">
-        <v>0.03523786121508296</v>
+        <v>0.04340570373759969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H12">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I12">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J12">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>614.5372498987981</v>
+        <v>899.3479681033369</v>
       </c>
       <c r="R12">
-        <v>5530.835249089184</v>
+        <v>8094.131712930031</v>
       </c>
       <c r="S12">
-        <v>0.0177136097109993</v>
+        <v>0.02302793305847485</v>
       </c>
       <c r="T12">
-        <v>0.01771360971099931</v>
+        <v>0.02302793305847484</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H13">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I13">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J13">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>1458.937352112471</v>
+        <v>1834.917240969223</v>
       </c>
       <c r="R13">
-        <v>13130.43616901224</v>
+        <v>16514.25516872301</v>
       </c>
       <c r="S13">
-        <v>0.04205285660450185</v>
+        <v>0.04698331779410384</v>
       </c>
       <c r="T13">
-        <v>0.04205285660450186</v>
+        <v>0.04698331779410383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H14">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>5.567067780311111</v>
+        <v>1.552485433393334</v>
       </c>
       <c r="R14">
-        <v>50.1036100228</v>
+        <v>13.97236890054</v>
       </c>
       <c r="S14">
-        <v>0.0001604668649644098</v>
+        <v>3.975161105865887E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001604668649644099</v>
+        <v>3.975161105865887E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H15">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>18.33811827284444</v>
+        <v>8.334619103186666</v>
       </c>
       <c r="R15">
-        <v>165.0430644556</v>
+        <v>75.01157192868</v>
       </c>
       <c r="S15">
-        <v>0.0005285835317107381</v>
+        <v>0.000213409111470873</v>
       </c>
       <c r="T15">
-        <v>0.0005285835317107381</v>
+        <v>0.000213409111470873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H16">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>9.218331042755555</v>
+        <v>4.421747241706667</v>
       </c>
       <c r="R16">
-        <v>82.96497938479999</v>
+        <v>39.79572517536</v>
       </c>
       <c r="S16">
-        <v>0.0002657119943584407</v>
+        <v>0.0001132194690985471</v>
       </c>
       <c r="T16">
-        <v>0.0002657119943584408</v>
+        <v>0.0001132194690985471</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H17">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>21.88470671977778</v>
+        <v>9.021580674859999</v>
       </c>
       <c r="R17">
-        <v>196.962360478</v>
+        <v>81.19422607373998</v>
       </c>
       <c r="S17">
-        <v>0.0006308114821968345</v>
+        <v>0.000230998860541636</v>
       </c>
       <c r="T17">
-        <v>0.0006308114821968347</v>
+        <v>0.000230998860541636</v>
       </c>
     </row>
   </sheetData>
